--- a/Documentation/Contribution spreadsheet.xlsx
+++ b/Documentation/Contribution spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CEBE31-FCC4-4BD0-842D-6A82357E9980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED34C80-7433-4131-BEB7-3E322CB9101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB851CD8-CD76-4DA8-BF79-EB935EF2FE0F}"/>
   </bookViews>
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,11 +137,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -146,10 +154,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FE961530-2442-47A7-BB67-B0C1EE71848F}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,7 +474,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,14 +553,30 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="6">
+        <v>45324</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">

--- a/Documentation/Contribution spreadsheet.xlsx
+++ b/Documentation/Contribution spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMU\IdeaProjects\seMethods\Group6-\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED34C80-7433-4131-BEB7-3E322CB9101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6BCDD-7BD9-4F0D-B3BC-2643629C6280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB851CD8-CD76-4DA8-BF79-EB935EF2FE0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB851CD8-CD76-4DA8-BF79-EB935EF2FE0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,23 +473,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DD68E8-20C1-4A0F-836B-D92E01E261C6}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -549,7 +549,7 @@
         <v>1.0002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -578,20 +578,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -604,7 +618,7 @@
       <c r="H5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -617,7 +631,7 @@
       <c r="H6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -642,7 +656,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
